--- a/mini-parser.xlsx
+++ b/mini-parser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdzch\Documents\2024A\SSP de Traductores de Lenguajes II\ssp_traductores_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037657E-54E2-4DB7-A950-DFF219D6E7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC5ABE5-EB29-4E97-B876-FBC5EFFA1CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFFC4194-D04D-40AC-91F2-A395B302F5BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Pila</t>
   </si>
@@ -264,6 +264,9 @@
       </rPr>
       <t xml:space="preserve"> a+b+c+d+e+f</t>
     </r>
+  </si>
+  <si>
+    <t>Ejercicio 2</t>
   </si>
 </sst>
 </file>
@@ -699,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13B4DCD-63B4-4C31-A728-7F5AD6C1D0CB}">
   <dimension ref="A4:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +800,7 @@
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
